--- a/apexsoft-code-generator/src/main/resources/com/qqc/apexsoft/codegenerator/queryList/generateCode.xlsx
+++ b/apexsoft-code-generator/src/main/resources/com/qqc/apexsoft/codegenerator/queryList/generateCode.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QQC\Desktop\01_微服务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F3D666-4192-49AD-AC78-5BA303C89595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D5AF5A-9010-4A1B-830C-5D050ABE132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="入参" sheetId="1" r:id="rId1"/>
     <sheet name="出参" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>操作人</t>
   </si>
@@ -51,9 +49,6 @@
     <t>O_NOTE</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>类型</t>
   </si>
   <si>
@@ -63,9 +58,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>NUMBER</t>
   </si>
   <si>
@@ -81,180 +73,67 @@
     <t>API定义</t>
   </si>
   <si>
-    <t>I_ID</t>
-  </si>
-  <si>
-    <t>指标代码</t>
-  </si>
-  <si>
-    <t>I_ZBDM</t>
-  </si>
-  <si>
-    <t>indexCode</t>
-  </si>
-  <si>
-    <t>指标名称</t>
-  </si>
-  <si>
-    <t>I_ZBMC</t>
-  </si>
-  <si>
-    <t>indexName</t>
-  </si>
-  <si>
-    <t>指标类别</t>
-  </si>
-  <si>
     <t>indexType</t>
   </si>
   <si>
-    <t>计算方式</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>计算公式</t>
-  </si>
-  <si>
-    <t>calcFormula</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>opr</t>
-  </si>
-  <si>
-    <t>操作类型</t>
-  </si>
-  <si>
-    <t>I_CZ</t>
-  </si>
-  <si>
-    <t>I_ZBLB</t>
-  </si>
-  <si>
-    <t>I_JSFS</t>
-  </si>
-  <si>
-    <t>I_JSGS</t>
-  </si>
-  <si>
-    <t>I_BZ</t>
-  </si>
-  <si>
-    <t>月份</t>
-  </si>
-  <si>
-    <t>YF</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>客户名称</t>
-  </si>
-  <si>
-    <t>KHMC</t>
-  </si>
-  <si>
-    <t>cusName</t>
-  </si>
-  <si>
-    <t>区域</t>
-  </si>
-  <si>
-    <t>QY</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>客户级别</t>
-  </si>
-  <si>
-    <t>KHJB</t>
-  </si>
-  <si>
-    <t>cusGrade</t>
-  </si>
-  <si>
-    <t>席位类型</t>
-  </si>
-  <si>
-    <t>XWLX</t>
-  </si>
-  <si>
-    <t>seatType</t>
-  </si>
-  <si>
-    <t>席位号</t>
-  </si>
-  <si>
-    <t>XWH</t>
-  </si>
-  <si>
-    <t>seatNo</t>
-  </si>
-  <si>
-    <t>list1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telephone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织机构列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>指标ID</t>
+  </si>
+  <si>
+    <t>I_ZBID</t>
+  </si>
+  <si>
+    <t>zbid</t>
+  </si>
+  <si>
+    <t>指标类型</t>
+  </si>
+  <si>
+    <t>I_ZBLX</t>
+  </si>
+  <si>
+    <t>权重比例</t>
+  </si>
+  <si>
+    <t>QZBL</t>
+  </si>
+  <si>
+    <t>weightRatio</t>
+  </si>
+  <si>
+    <t>基金公司</t>
+  </si>
+  <si>
+    <t>JJGS</t>
+  </si>
+  <si>
+    <t>fundCompany</t>
+  </si>
+  <si>
+    <t>子目标值</t>
+  </si>
+  <si>
+    <t>ZMBZ</t>
+  </si>
+  <si>
+    <t>subGoalValue</t>
+  </si>
+  <si>
+    <t>子实际值</t>
+  </si>
+  <si>
+    <t>ZSJZ</t>
+  </si>
+  <si>
+    <t>subActualValue</t>
+  </si>
+  <si>
+    <t>子实际分</t>
+  </si>
+  <si>
+    <t>ZSJF</t>
+  </si>
+  <si>
+    <t>subActualScore</t>
   </si>
 </sst>
 </file>
@@ -323,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -360,30 +239,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -444,11 +299,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -456,44 +324,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,173 +648,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <sheetData>
     <row r="1" spans="1:5" ht="14.65">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="14.65">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.65">
+      <c r="A3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.65">
+      <c r="A4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.65">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.65">
-      <c r="A3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.65">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="5" spans="1:5" ht="14.65">
-      <c r="A5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="A5" s="14"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="14.65">
-      <c r="A6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="A6" s="14"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="14.65">
-      <c r="A7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="14.65">
-      <c r="A8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="14.65">
-      <c r="A9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="14.65">
-      <c r="A10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="14.65">
-      <c r="A11" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="A11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="14.65">
-      <c r="A12" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="A12" s="12"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -957,23 +768,23 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <sheetData>
     <row r="1" spans="1:4" ht="14.65">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.65">
@@ -984,10 +795,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.65">
@@ -997,206 +808,98 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.65">
-      <c r="A4" s="11" t="s">
-        <v>7</v>
+      <c r="A4" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="14.65">
-      <c r="A5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>40</v>
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.65">
-      <c r="A6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>43</v>
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.65">
-      <c r="A7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>46</v>
+      <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.65">
-      <c r="A8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>50</v>
+      <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.65">
-      <c r="A9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="14.65">
-      <c r="A10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69535333-A42C-4138-993C-DA3C20DA9F4E}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="14.65">
-      <c r="A1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E67026-9D15-459D-B5FC-FED85D3C30EC}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="14.65">
-      <c r="A1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/apexsoft-code-generator/src/main/resources/com/qqc/apexsoft/codegenerator/queryList/generateCode.xlsx
+++ b/apexsoft-code-generator/src/main/resources/com/qqc/apexsoft/codegenerator/queryList/generateCode.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QQC\Desktop\01_微服务\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D5AF5A-9010-4A1B-830C-5D050ABE132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23317" windowHeight="11280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="入参" sheetId="1" r:id="rId1"/>
     <sheet name="出参" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+  <si>
+    <t>参数名</t>
+  </si>
+  <si>
+    <t>定义</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>API定义</t>
+  </si>
   <si>
     <t>操作人</t>
   </si>
@@ -34,124 +35,102 @@
     <t>I_CZR</t>
   </si>
   <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
     <t>czr</t>
   </si>
   <si>
+    <t>客户ID</t>
+  </si>
+  <si>
+    <t>I_ID</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>月份</t>
+  </si>
+  <si>
+    <t>I_YF</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
     <t>返回值</t>
   </si>
   <si>
     <t>O_CODE</t>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>返回消息</t>
   </si>
   <si>
     <t>O_NOTE</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>code</t>
+    <t>VARCHAR2</t>
   </si>
   <si>
     <t>note</t>
   </si>
   <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-  </si>
-  <si>
-    <t>参数名</t>
-  </si>
-  <si>
-    <t>定义</t>
-  </si>
-  <si>
-    <t>API定义</t>
-  </si>
-  <si>
-    <t>indexType</t>
-  </si>
-  <si>
-    <t>指标ID</t>
-  </si>
-  <si>
-    <t>I_ZBID</t>
-  </si>
-  <si>
-    <t>zbid</t>
-  </si>
-  <si>
-    <t>指标类型</t>
-  </si>
-  <si>
-    <t>I_ZBLX</t>
-  </si>
-  <si>
-    <t>权重比例</t>
-  </si>
-  <si>
-    <t>QZBL</t>
-  </si>
-  <si>
-    <t>weightRatio</t>
-  </si>
-  <si>
-    <t>基金公司</t>
-  </si>
-  <si>
-    <t>JJGS</t>
-  </si>
-  <si>
-    <t>fundCompany</t>
-  </si>
-  <si>
-    <t>子目标值</t>
-  </si>
-  <si>
-    <t>ZMBZ</t>
-  </si>
-  <si>
-    <t>subGoalValue</t>
-  </si>
-  <si>
-    <t>子实际值</t>
-  </si>
-  <si>
-    <t>ZSJZ</t>
-  </si>
-  <si>
-    <t>subActualValue</t>
-  </si>
-  <si>
-    <t>子实际分</t>
-  </si>
-  <si>
-    <t>ZSJF</t>
-  </si>
-  <si>
-    <t>subActualScore</t>
+    <t>券商名称</t>
+  </si>
+  <si>
+    <t>QSMC</t>
+  </si>
+  <si>
+    <t>brokerName</t>
+  </si>
+  <si>
+    <t>佣金</t>
+  </si>
+  <si>
+    <t>YJ</t>
+  </si>
+  <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>比例</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>占比排名</t>
+  </si>
+  <si>
+    <t>ZBPM</t>
+  </si>
+  <si>
+    <t>proportionRanking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -159,14 +138,18 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="华文楷体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF969696"/>
       <name val="华文楷体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="STKaiti"/>
       <charset val="134"/>
     </font>
     <font>
@@ -176,13 +159,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="STKaiti"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,18 +312,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFDE9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -211,11 +512,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -230,6 +533,17 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -255,129 +569,359 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFFDE9D9"/>
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -426,7 +970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -461,7 +1005,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -635,271 +1179,255 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.65">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="14.6" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="14.6" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="14.6" spans="1:4">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="14.6" spans="1:4">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.65">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.65">
-      <c r="A3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.65">
-      <c r="A4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.65">
+    </row>
+    <row r="5" ht="14.6" spans="1:4">
       <c r="A5" s="14"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.65">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" ht="14.6" spans="1:4">
       <c r="A6" s="14"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.65">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.65">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.65">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.65">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.65">
-      <c r="A11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.65">
-      <c r="A12" s="12"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" ht="14.6" spans="1:4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" ht="14.6" spans="1:4">
+      <c r="A8" s="17"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" ht="14.6" spans="1:4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A923992E-85F5-4A40-97B3-5C1512803958}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D8"/>
+      <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.65">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
+    <row r="1" ht="14.6" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="14.6" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.65">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.65">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="14.6" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.65">
-      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="14.6" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.65">
-      <c r="A5" s="9" t="s">
+    <row r="5" ht="14.6" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.65">
-      <c r="A6" s="9" t="s">
+    <row r="6" ht="14.6" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.65">
-      <c r="A7" s="9" t="s">
+    <row r="7" ht="14.6" spans="1:4">
+      <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.65">
-      <c r="A8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.65">
-      <c r="A9" s="15"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.65">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
+    <row r="8" ht="14.6" spans="1:4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" ht="14.6" spans="1:4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" ht="14.6" spans="1:4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" ht="14.6" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" ht="14.6" spans="1:4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>